--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC284FCD-5C04-4876-9798-C7707AD8A849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE2293-A176-4165-A87B-A014EEFA6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13125" yWindow="1770" windowWidth="15780" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Jolien</t>
+  </si>
+  <si>
+    <t>bolero</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>penioen/kbc</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -130,6 +139,9 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -174,7 +186,7 @@
             <v>IWDA</v>
           </cell>
           <cell r="D6">
-            <v>93.6</v>
+            <v>93.7</v>
           </cell>
           <cell r="E6">
             <v>79</v>
@@ -191,7 +203,7 @@
             <v>EMIM</v>
           </cell>
           <cell r="D7">
-            <v>31.385000000000002</v>
+            <v>31.408999999999999</v>
           </cell>
           <cell r="E7">
             <v>33</v>
@@ -208,7 +220,7 @@
             <v>VWCE</v>
           </cell>
           <cell r="D8">
-            <v>121.18</v>
+            <v>121.32</v>
           </cell>
           <cell r="E8">
             <v>230</v>
@@ -226,13 +238,31 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="5">
+          <cell r="T5">
+            <v>12842.73</v>
+          </cell>
+          <cell r="U5">
+            <v>36390.877</v>
+          </cell>
+          <cell r="V5">
+            <v>1706</v>
+          </cell>
           <cell r="X5">
-            <v>50898.715000000011</v>
+            <v>50939.607000000004</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="T6">
+            <v>19345.87</v>
+          </cell>
+          <cell r="U6">
+            <v>1867.325</v>
+          </cell>
+          <cell r="W6">
+            <v>8824.8799999999992</v>
+          </cell>
           <cell r="X6">
-            <v>30036.466999999997</v>
+            <v>30038.074999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -562,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5A40D-BB52-45F6-9C73-EDE2E7F2B2C7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +603,7 @@
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,8 +623,17 @@
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>[1]Assets!$B$6</f>
         <v>IWDA</v>
@@ -613,17 +652,29 @@
       </c>
       <c r="E2" s="4">
         <f>[1]Assets!$D$6</f>
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>50898.715000000011</v>
+        <v>50939.607000000004</v>
+      </c>
+      <c r="H2">
+        <f>[1]Ledger!$U$5</f>
+        <v>36390.877</v>
+      </c>
+      <c r="I2">
+        <f>[1]Ledger!$T$5</f>
+        <v>12842.73</v>
+      </c>
+      <c r="J2">
+        <f>[1]Ledger!$V$5</f>
+        <v>1706</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>[1]Assets!$B$7</f>
         <v>EMIM</v>
@@ -642,17 +693,29 @@
       </c>
       <c r="E3" s="4">
         <f>[1]Assets!$D$7</f>
-        <v>31.385000000000002</v>
+        <v>31.408999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30036.466999999997</v>
+        <v>30038.074999999997</v>
+      </c>
+      <c r="H3">
+        <f>[1]Ledger!$U$6</f>
+        <v>1867.325</v>
+      </c>
+      <c r="I3">
+        <f>[1]Ledger!$T$6</f>
+        <v>19345.87</v>
+      </c>
+      <c r="J3">
+        <f>[1]Ledger!$W$6</f>
+        <v>8824.8799999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>[1]Assets!$B$8</f>
         <v>VWCE</v>
@@ -671,7 +734,7 @@
       </c>
       <c r="E4" s="4">
         <f>[1]Assets!$D$8</f>
-        <v>121.18</v>
+        <v>121.32</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE2293-A176-4165-A87B-A014EEFA6630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506E93F-E690-4C34-A87F-C7C03167736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13125" yWindow="1770" windowWidth="15780" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
+    <workbookView xWindow="11505" yWindow="1800" windowWidth="15780" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,8 +639,8 @@
         <v>IWDA</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]Assets!$E$6</f>
-        <v>79</v>
+        <f>[1]Assets!$E$6+100</f>
+        <v>179</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E506E93F-E690-4C34-A87F-C7C03167736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F353D-8F97-4EB4-9D31-1779735496F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11505" yWindow="1800" windowWidth="15780" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -186,7 +186,7 @@
             <v>IWDA</v>
           </cell>
           <cell r="D6">
-            <v>93.7</v>
+            <v>93.575000000000003</v>
           </cell>
           <cell r="E6">
             <v>79</v>
@@ -220,7 +220,7 @@
             <v>VWCE</v>
           </cell>
           <cell r="D8">
-            <v>121.32</v>
+            <v>121.16</v>
           </cell>
           <cell r="E8">
             <v>230</v>
@@ -242,13 +242,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36390.877</v>
+            <v>36344.202000000005</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>50939.607000000004</v>
+            <v>50892.932000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -256,13 +256,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1867.325</v>
+            <v>1865.309</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30038.074999999997</v>
+            <v>30036.059000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -595,7 +595,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,8 +639,8 @@
         <v>IWDA</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]Assets!$E$6+100</f>
-        <v>179</v>
+        <f>[1]Assets!$E$6</f>
+        <v>79</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>
@@ -652,18 +652,18 @@
       </c>
       <c r="E2" s="4">
         <f>[1]Assets!$D$6</f>
-        <v>93.7</v>
+        <v>93.575000000000003</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>50939.607000000004</v>
+        <v>50892.932000000001</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36390.877</v>
+        <v>36344.202000000005</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -700,11 +700,11 @@
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30038.074999999997</v>
+        <v>30036.059000000001</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1867.325</v>
+        <v>1865.309</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -734,7 +734,7 @@
       </c>
       <c r="E4" s="4">
         <f>[1]Assets!$D$8</f>
-        <v>121.32</v>
+        <v>121.16</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F353D-8F97-4EB4-9D31-1779735496F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EAFE1-9C0A-4CC4-9E13-EAC49987363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1800" windowWidth="15780" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -139,9 +139,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -186,7 +183,7 @@
             <v>IWDA</v>
           </cell>
           <cell r="D6">
-            <v>93.575000000000003</v>
+            <v>93.6</v>
           </cell>
           <cell r="E6">
             <v>79</v>
@@ -203,7 +200,7 @@
             <v>EMIM</v>
           </cell>
           <cell r="D7">
-            <v>31.408999999999999</v>
+            <v>31.381</v>
           </cell>
           <cell r="E7">
             <v>33</v>
@@ -220,7 +217,7 @@
             <v>VWCE</v>
           </cell>
           <cell r="D8">
-            <v>121.16</v>
+            <v>121.18</v>
           </cell>
           <cell r="E8">
             <v>230</v>
@@ -242,13 +239,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36344.202000000005</v>
+            <v>36349.853000000003</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>50892.932000000001</v>
+            <v>50898.582999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -256,13 +253,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1865.309</v>
+            <v>1866.2649999999999</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30036.059000000001</v>
+            <v>30037.014999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -595,7 +592,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +620,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -652,18 +649,18 @@
       </c>
       <c r="E2" s="4">
         <f>[1]Assets!$D$6</f>
-        <v>93.575000000000003</v>
+        <v>93.6</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>50892.932000000001</v>
+        <v>50898.582999999999</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36344.202000000005</v>
+        <v>36349.853000000003</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -693,18 +690,18 @@
       </c>
       <c r="E3" s="4">
         <f>[1]Assets!$D$7</f>
-        <v>31.408999999999999</v>
+        <v>31.381</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30036.059000000001</v>
+        <v>30037.014999999999</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1865.309</v>
+        <v>1866.2649999999999</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -734,7 +731,7 @@
       </c>
       <c r="E4" s="4">
         <f>[1]Assets!$D$8</f>
-        <v>121.16</v>
+        <v>121.18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263EAFE1-9C0A-4CC4-9E13-EAC49987363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57093E33-A0A1-494A-89BF-C7E85D2EAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,8 +636,8 @@
         <v>IWDA</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]Assets!$E$6</f>
-        <v>79</v>
+        <f>[1]Assets!$E$6+10</f>
+        <v>89</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57093E33-A0A1-494A-89BF-C7E85D2EAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B86730-24DF-45C0-8086-B67AE5C29D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,8 +636,8 @@
         <v>IWDA</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]Assets!$E$6+10</f>
-        <v>89</v>
+        <f>[1]Assets!$E$6</f>
+        <v>79</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B86730-24DF-45C0-8086-B67AE5C29D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D06FE-41F8-460E-99B1-0807E24763F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -183,7 +183,7 @@
             <v>IWDA</v>
           </cell>
           <cell r="D6">
-            <v>93.6</v>
+            <v>93.745000000000005</v>
           </cell>
           <cell r="E6">
             <v>79</v>
@@ -200,7 +200,7 @@
             <v>EMIM</v>
           </cell>
           <cell r="D7">
-            <v>31.381</v>
+            <v>31.369</v>
           </cell>
           <cell r="E7">
             <v>33</v>
@@ -217,7 +217,7 @@
             <v>VWCE</v>
           </cell>
           <cell r="D8">
-            <v>121.18</v>
+            <v>121.34</v>
           </cell>
           <cell r="E8">
             <v>230</v>
@@ -239,13 +239,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36349.853000000003</v>
+            <v>36397.712000000007</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>50898.582999999999</v>
+            <v>50946.44200000001</v>
           </cell>
         </row>
         <row r="6">
@@ -253,13 +253,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1866.2649999999999</v>
+            <v>1867.7650000000001</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30037.014999999999</v>
+            <v>30038.514999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -649,18 +649,18 @@
       </c>
       <c r="E2" s="4">
         <f>[1]Assets!$D$6</f>
-        <v>93.6</v>
+        <v>93.745000000000005</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>50898.582999999999</v>
+        <v>50946.44200000001</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36349.853000000003</v>
+        <v>36397.712000000007</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -690,18 +690,18 @@
       </c>
       <c r="E3" s="4">
         <f>[1]Assets!$D$7</f>
-        <v>31.381</v>
+        <v>31.369</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30037.014999999999</v>
+        <v>30038.514999999999</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1866.2649999999999</v>
+        <v>1867.7650000000001</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -731,7 +731,7 @@
       </c>
       <c r="E4" s="4">
         <f>[1]Assets!$D$8</f>
-        <v>121.18</v>
+        <v>121.34</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804D06FE-41F8-460E-99B1-0807E24763F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E3072-B380-4339-8A07-B3775B375DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -36,6 +36,63 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,8 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,6 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -182,9 +241,6 @@
           <cell r="B6" t="str">
             <v>IWDA</v>
           </cell>
-          <cell r="D6">
-            <v>93.745000000000005</v>
-          </cell>
           <cell r="E6">
             <v>79</v>
           </cell>
@@ -199,9 +255,6 @@
           <cell r="B7" t="str">
             <v>EMIM</v>
           </cell>
-          <cell r="D7">
-            <v>31.369</v>
-          </cell>
           <cell r="E7">
             <v>33</v>
           </cell>
@@ -215,9 +268,6 @@
         <row r="8">
           <cell r="B8" t="str">
             <v>VWCE</v>
-          </cell>
-          <cell r="D8">
-            <v>121.34</v>
           </cell>
           <cell r="E8">
             <v>230</v>
@@ -270,6 +320,528 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=aloe4c&amp;q=XAMS%3aIWDA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-GB</v>
+    <v>aloe4c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>96.7</v>
+    <v>73.69</v>
+    <v>0.185</v>
+    <v>1.977E-3</v>
+    <v>EUR</v>
+    <v>Euronext Amsterdam</v>
+    <v>XAMS</v>
+    <v>2E-3</v>
+    <v>93.92</v>
+    <v>ETF</v>
+    <v>45499.666666666664</v>
+    <v>0</v>
+    <v>93.25</v>
+    <v>76531170531.970001</v>
+    <v>iShs CoreMSCI Wld ETF USD A</v>
+    <v>93.344999999999999</v>
+    <v>93.56</v>
+    <v>93.745000000000005</v>
+    <v>IWDA</v>
+    <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
+    <v>96917</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=alo6cw&amp;q=XAMS%3aEMIM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-GB</v>
+    <v>alo6cw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>32.82</v>
+    <v>26.53</v>
+    <v>0.16400000000000001</v>
+    <v>5.2559999999999994E-3</v>
+    <v>EUR</v>
+    <v>Euronext Amsterdam</v>
+    <v>XAMS</v>
+    <v>1.8E-3</v>
+    <v>31.408999999999999</v>
+    <v>ETF</v>
+    <v>45499.666666666664</v>
+    <v>3</v>
+    <v>31.236999999999998</v>
+    <v>20540937542.860001</v>
+    <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
+    <v>31.312999999999999</v>
+    <v>31.204999999999998</v>
+    <v>31.369</v>
+    <v>EMIM</v>
+    <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
+    <v>17451</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="3">
+    <v>en-GB</v>
+    <v>c8v3ur</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>5</v>
+    <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
+    <v>6</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>125.26</v>
+    <v>96.82</v>
+    <v>0.35899999999999999</v>
+    <v>2.9659999999999999E-3</v>
+    <v>EUR</v>
+    <v>Euronext Amsterdam</v>
+    <v>XAMS</v>
+    <v>2.2000000000000001E-3</v>
+    <v>121.71</v>
+    <v>ETF</v>
+    <v>45499.666666666664</v>
+    <v>120.884</v>
+    <v>12527969851.459999</v>
+    <v>FTSE AllWld UCITS ETF USD A</v>
+    <v>121</v>
+    <v>121.05</v>
+    <v>121.40900000000001</v>
+    <v>VWCE</v>
+    <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
+    <v>5457</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="Expense ratio"/>
+    <k n="High"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="2">
+    <a count="32">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Market cap</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="31">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Expense ratio</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Market cap</v>
+      <v t="s">Instrument type</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="7">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>3</v>
+      <v>4</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>6</v>
+      <v>7</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="5">
+      <v>1</v>
+      <v>Name</v>
+    </spb>
+    <spb s="6">
+      <v>1</v>
+      <v>1</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Expense ratio" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="5">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="d/mm/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0.00_);_([$€-x-euro2] * (#,##0.00);_([$€-x-euro2] * "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0_);_([$€-x-euro2] * (#,##0);_([$€-x-euro2] * "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5A40D-BB52-45F6-9C73-EDE2E7F2B2C7}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +1172,7 @@
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +1202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>[1]Assets!$B$6</f>
         <v>IWDA</v>
@@ -647,8 +1219,8 @@
         <f>[1]Assets!$F$6</f>
         <v>89.933797468354442</v>
       </c>
-      <c r="E2" s="4">
-        <f>[1]Assets!$D$6</f>
+      <c r="E2" s="4" cm="1">
+        <f t="array" ref="E2">_FV(O3,"Price")</f>
         <v>93.745000000000005</v>
       </c>
       <c r="F2" t="s">
@@ -671,7 +1243,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>[1]Assets!$B$7</f>
         <v>EMIM</v>
@@ -688,8 +1260,8 @@
         <f>[1]Assets!$F$7</f>
         <v>31.210303030303031</v>
       </c>
-      <c r="E3" s="4">
-        <f>[1]Assets!$D$7</f>
+      <c r="E3" s="6" cm="1">
+        <f t="array" ref="E3">_FV(O4,"Price")</f>
         <v>31.369</v>
       </c>
       <c r="F3" t="s">
@@ -711,8 +1283,11 @@
         <f>[1]Ledger!$W$6</f>
         <v>8824.8799999999992</v>
       </c>
+      <c r="O3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>[1]Assets!$B$8</f>
         <v>VWCE</v>
@@ -729,10 +1304,21 @@
         <f>[1]Assets!$F$8</f>
         <v>102.25373913043477</v>
       </c>
-      <c r="E4" s="4">
-        <f>[1]Assets!$D$8</f>
-        <v>121.34</v>
-      </c>
+      <c r="E4" s="4" cm="1">
+        <f t="array" ref="E4">_FV(O5,"Price")</f>
+        <v>121.40900000000001</v>
+      </c>
+      <c r="O4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4E3072-B380-4339-8A07-B3775B375DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCDAC9-C5CA-4160-AF7E-D85C0693678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCDAC9-C5CA-4160-AF7E-D85C0693678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534C34C-E170-4A63-BD69-1CC1D96F59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -196,10 +196,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -289,13 +289,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36397.712000000007</v>
+            <v>36613.819000000003</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>50946.44200000001</v>
+            <v>51162.548999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -303,13 +303,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1867.7650000000001</v>
+            <v>1879.0670000000002</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30038.514999999999</v>
+            <v>30049.816999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -444,25 +444,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.185</v>
-    <v>1.977E-3</v>
+    <v>0.57499999999999996</v>
+    <v>6.1339999999999997E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>93.92</v>
+    <v>94.43</v>
     <v>ETF</v>
-    <v>45499.666666666664</v>
+    <v>45502.385162037041</v>
     <v>0</v>
-    <v>93.25</v>
+    <v>94.12</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>93.344999999999999</v>
-    <v>93.56</v>
+    <v>94.375</v>
     <v>93.745000000000005</v>
+    <v>94.32</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>96917</v>
+    <v>37286</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -485,25 +485,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.16400000000000001</v>
-    <v>5.2559999999999994E-3</v>
+    <v>0.154</v>
+    <v>4.9090000000000002E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.408999999999999</v>
+    <v>31.565999999999999</v>
     <v>ETF</v>
-    <v>45499.666666666664</v>
+    <v>45502.38517361111</v>
     <v>3</v>
-    <v>31.236999999999998</v>
+    <v>31.5</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>31.312999999999999</v>
-    <v>31.204999999999998</v>
+    <v>31.550999999999998</v>
     <v>31.369</v>
+    <v>31.523</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>17451</v>
+    <v>10521</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -522,24 +522,24 @@
     <v>4</v>
     <v>125.26</v>
     <v>96.82</v>
-    <v>0.35899999999999999</v>
-    <v>2.9659999999999999E-3</v>
+    <v>0.70599999999999996</v>
+    <v>5.816E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2.2000000000000001E-3</v>
-    <v>121.71</v>
+    <v>122.298</v>
     <v>ETF</v>
-    <v>45499.666666666664</v>
-    <v>120.884</v>
+    <v>45502.385162037041</v>
+    <v>121.9</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>121</v>
-    <v>121.05</v>
-    <v>121.40900000000001</v>
+    <v>122.1</v>
+    <v>121.38200000000001</v>
+    <v>122.08799999999999</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
-    <v>5457</v>
+    <v>1287</v>
   </rv>
   <rv s="2">
     <v>6</v>
@@ -1188,10 +1188,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,18 +1221,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>93.745000000000005</v>
+        <v>94.32</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>50946.44200000001</v>
+        <v>51162.548999999999</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36397.712000000007</v>
+        <v>36613.819000000003</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1260,20 +1260,20 @@
         <f>[1]Assets!$F$7</f>
         <v>31.210303030303031</v>
       </c>
-      <c r="E3" s="6" cm="1">
+      <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.369</v>
+        <v>31.523</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30038.514999999999</v>
+        <v>30049.816999999995</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1867.7650000000001</v>
+        <v>1879.0670000000002</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>121.40900000000001</v>
+        <v>122.08799999999999</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M12" s="6"/>
+      <c r="M12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534C34C-E170-4A63-BD69-1CC1D96F59C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEEEE5D-3E95-4916-80A9-48F69203A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,6 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -289,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36613.819000000003</v>
+            <v>36634.853000000003</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51162.548999999999</v>
+            <v>51183.582999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -303,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1879.0670000000002</v>
+            <v>1879.2190000000003</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30049.816999999995</v>
+            <v>30049.968999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -444,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.57499999999999996</v>
-    <v>6.1339999999999997E-3</v>
+    <v>0.63500000000000001</v>
+    <v>6.7739999999999996E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>94.43</v>
     <v>ETF</v>
-    <v>45502.385162037041</v>
+    <v>45502.399131944447</v>
     <v>0</v>
     <v>94.12</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.375</v>
     <v>93.745000000000005</v>
-    <v>94.32</v>
+    <v>94.38</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>37286</v>
+    <v>38157</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -485,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.154</v>
-    <v>4.9090000000000002E-3</v>
+    <v>0.16500000000000001</v>
+    <v>5.2599999999999999E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
     <v>31.565999999999999</v>
     <v>ETF</v>
-    <v>45502.38517361111</v>
+    <v>45502.399155092593</v>
     <v>3</v>
     <v>31.5</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.550999999999998</v>
     <v>31.369</v>
-    <v>31.523</v>
+    <v>31.533999999999999</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>10521</v>
+    <v>10805</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -530,7 +531,7 @@
     <v>2.2000000000000001E-3</v>
     <v>122.298</v>
     <v>ETF</v>
-    <v>45502.385162037041</v>
+    <v>45502.399131944447</v>
     <v>121.9</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
@@ -1161,18 +1162,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B5A40D-BB52-45F6-9C73-EDE2E7F2B2C7}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>[1]Assets!$B$6</f>
         <v>IWDA</v>
@@ -1221,18 +1223,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.32</v>
+        <v>94.38</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51162.548999999999</v>
+        <v>51183.582999999999</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36613.819000000003</v>
+        <v>36634.853000000003</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1243,7 +1245,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>[1]Assets!$B$7</f>
         <v>EMIM</v>
@@ -1262,18 +1264,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.523</v>
+        <v>31.533999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30049.816999999995</v>
+        <v>30049.968999999997</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1879.0670000000002</v>
+        <v>1879.2190000000003</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1286,8 +1288,12 @@
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
+      <c r="U3" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45502</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>[1]Assets!$B$8</f>
         <v>VWCE</v>
@@ -1312,12 +1318,12 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" s="5"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEEEE5D-3E95-4916-80A9-48F69203A7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C54F7E4-05C4-495B-8B05-3286A5EF20DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36634.853000000003</v>
+            <v>36626.937000000005</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51183.582999999999</v>
+            <v>51175.667000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1879.2190000000003</v>
+            <v>1880.5840000000003</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30049.968999999997</v>
+            <v>30051.333999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,11 +1230,11 @@
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51183.582999999999</v>
+        <v>51175.667000000001</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36634.853000000003</v>
+        <v>36626.937000000005</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1271,11 +1271,11 @@
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30049.968999999997</v>
+        <v>30051.333999999995</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1879.2190000000003</v>
+        <v>1880.5840000000003</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C54F7E4-05C4-495B-8B05-3286A5EF20DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21029690-0881-4FFE-AB1C-06B566429715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -197,10 +197,10 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36626.937000000005</v>
+            <v>36456.712000000007</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51175.667000000001</v>
+            <v>51005.44200000001</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1880.5840000000003</v>
+            <v>1871.1900000000003</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30051.333999999995</v>
+            <v>30041.939999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.63500000000000001</v>
-    <v>6.7739999999999996E-3</v>
+    <v>0.17499999999999999</v>
+    <v>1.867E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>94.43</v>
+    <v>94.784999999999997</v>
     <v>ETF</v>
-    <v>45502.399131944447</v>
+    <v>45502.666666666664</v>
     <v>0</v>
-    <v>94.12</v>
+    <v>93.92</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.375</v>
     <v>93.745000000000005</v>
-    <v>94.38</v>
+    <v>93.92</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>38157</v>
+    <v>115889</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.16500000000000001</v>
-    <v>5.2599999999999999E-3</v>
+    <v>-2.5000000000000001E-2</v>
+    <v>-7.9699999999999997E-4</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.565999999999999</v>
+    <v>31.614000000000001</v>
     <v>ETF</v>
-    <v>45502.399155092593</v>
+    <v>45502.666666666664</v>
     <v>3</v>
-    <v>31.5</v>
+    <v>31.344000000000001</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.550999999999998</v>
     <v>31.369</v>
-    <v>31.533999999999999</v>
+    <v>31.344000000000001</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>10805</v>
+    <v>19514</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -523,24 +523,24 @@
     <v>4</v>
     <v>125.26</v>
     <v>96.82</v>
-    <v>0.70599999999999996</v>
-    <v>5.816E-3</v>
+    <v>0.309</v>
+    <v>2.5460000000000001E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.298</v>
+    <v>122.56</v>
     <v>ETF</v>
-    <v>45502.399131944447</v>
-    <v>121.9</v>
+    <v>45502.666666666664</v>
+    <v>121.651</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>122.1</v>
     <v>121.38200000000001</v>
-    <v>122.08799999999999</v>
+    <v>121.691</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
-    <v>1287</v>
+    <v>2499</v>
   </rv>
   <rv s="2">
     <v>6</v>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,10 +1190,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,18 +1223,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.38</v>
+        <v>93.92</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51175.667000000001</v>
+        <v>51005.44200000001</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36626.937000000005</v>
+        <v>36456.712000000007</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1264,18 +1264,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.533999999999999</v>
+        <v>31.344000000000001</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30051.333999999995</v>
+        <v>30041.939999999995</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1880.5840000000003</v>
+        <v>1871.1900000000003</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1288,7 +1288,7 @@
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <f ca="1">TODAY()</f>
         <v>45502</v>
       </c>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.08799999999999</v>
+        <v>121.691</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21029690-0881-4FFE-AB1C-06B566429715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B5ED6-FA09-46FA-86BD-E0213DDC5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
+    <workbookView xWindow="-25155" yWindow="1905" windowWidth="24480" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
+          <xlrd:rvb i="8"/>
         </ext>
       </extLst>
     </bk>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=aloe4c&amp;q=XAMS%3aIWDA&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -509,47 +509,52 @@
   <rv s="2">
     <v>4</v>
   </rv>
-  <rv s="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bqzorw&amp;q=XETR%3aVWCE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
     <v>en-GB</v>
-    <v>c8v3ur</v>
+    <v>bqzorw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>5</v>
-    <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
-    <v>6</v>
+    <v>0</v>
+    <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
+    <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>125.26</v>
-    <v>96.82</v>
-    <v>0.309</v>
-    <v>2.5460000000000001E-3</v>
+    <v>125.14</v>
+    <v>96.52</v>
+    <v>0.2</v>
+    <v>1.6479999999999999E-3</v>
     <v>EUR</v>
-    <v>Euronext Amsterdam</v>
-    <v>XAMS</v>
+    <v>Xetra</v>
+    <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.56</v>
+    <v>122.62</v>
     <v>ETF</v>
-    <v>45502.666666666664</v>
-    <v>121.651</v>
+    <v>45502.65693287037</v>
+    <v>6</v>
+    <v>121.54</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>122.1</v>
-    <v>121.38200000000001</v>
-    <v>121.691</v>
+    <v>121.34</v>
+    <v>121.54</v>
     <v>VWCE</v>
-    <v>FTSE AllWld UCITS ETF USD A (XAMS:VWCE)</v>
-    <v>2499</v>
+    <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
+    <v>92201</v>
   </rv>
   <rv s="2">
-    <v>6</v>
+    <v>7</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -591,45 +596,12 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
-  <s t="_linkedentitycore">
-    <k n="%EntityCulture" t="s"/>
-    <k n="%EntityId" t="s"/>
-    <k n="%EntityServiceId"/>
-    <k n="%IsRefreshable" t="b"/>
-    <k n="%ProviderInfo" t="s"/>
-    <k n="_Display" t="spb"/>
-    <k n="_DisplayString" t="s"/>
-    <k n="_Flags" t="spb"/>
-    <k n="_Format" t="spb"/>
-    <k n="_Icon" t="s"/>
-    <k n="_SubLabel" t="spb"/>
-    <k n="52 week high"/>
-    <k n="52 week low"/>
-    <k n="Change"/>
-    <k n="Change (%)"/>
-    <k n="Currency" t="s"/>
-    <k n="Exchange" t="s"/>
-    <k n="Exchange abbreviation" t="s"/>
-    <k n="Expense ratio"/>
-    <k n="High"/>
-    <k n="Instrument type" t="s"/>
-    <k n="Last trade time"/>
-    <k n="Low"/>
-    <k n="Market cap"/>
-    <k n="Name" t="s"/>
-    <k n="Open"/>
-    <k n="Previous close"/>
-    <k n="Price"/>
-    <k n="Ticker symbol" t="s"/>
-    <k n="UniqueName" t="s"/>
-    <k n="Volume"/>
-  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="2">
+  <spbArrays count="1">
     <a count="32">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -664,41 +636,8 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="31">
-      <v t="s">%EntityServiceId</v>
-      <v t="s">_Format</v>
-      <v t="s">%IsRefreshable</v>
-      <v t="s">%EntityCulture</v>
-      <v t="s">%EntityId</v>
-      <v t="s">_Icon</v>
-      <v t="s">_Display</v>
-      <v t="s">Name</v>
-      <v t="s">_SubLabel</v>
-      <v t="s">Price</v>
-      <v t="s">Exchange</v>
-      <v t="s">Last trade time</v>
-      <v t="s">Ticker symbol</v>
-      <v t="s">Exchange abbreviation</v>
-      <v t="s">Change</v>
-      <v t="s">Expense ratio</v>
-      <v t="s">Change (%)</v>
-      <v t="s">Currency</v>
-      <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
-      <v t="s">52 week high</v>
-      <v t="s">52 week low</v>
-      <v t="s">Volume</v>
-      <v t="s">Market cap</v>
-      <v t="s">Instrument type</v>
-      <v t="s">_Flags</v>
-      <v t="s">UniqueName</v>
-      <v t="s">_DisplayString</v>
-      <v t="s">%ProviderInfo</v>
-    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="5">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -737,20 +676,12 @@
       <v>from previous close</v>
       <v>GMT</v>
     </spb>
-    <spb s="5">
-      <v>1</v>
-      <v>Name</v>
-    </spb>
-    <spb s="6">
-      <v>1</v>
-      <v>1</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -788,14 +719,6 @@
     <k n="Change" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-  </s>
-  <s>
-    <k n="^Order" t="spba"/>
-    <k n="TitleProperty" t="s"/>
-  </s>
-  <s>
-    <k n="UniqueName" t="spb"/>
-    <k n="`%ProviderInfo" t="spb"/>
   </s>
 </spbStructures>
 </file>
@@ -1165,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>121.691</v>
+        <v>121.54</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B5ED6-FA09-46FA-86BD-E0213DDC5484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21821-B7CC-4DCB-BE06-67E68F168471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25155" yWindow="1905" windowWidth="24480" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
+    <workbookView xWindow="4350" yWindow="3180" windowWidth="24480" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36456.712000000007</v>
+            <v>36582.455000000002</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51005.44200000001</v>
+            <v>51131.184999999998</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1871.1900000000003</v>
+            <v>1878.5130000000001</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30041.939999999995</v>
+            <v>30049.262999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.17499999999999999</v>
-    <v>1.867E-3</v>
+    <v>0.31</v>
+    <v>3.3010000000000001E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>94.784999999999997</v>
+    <v>94.394999999999996</v>
     <v>ETF</v>
-    <v>45502.666666666664</v>
+    <v>45503.39303240741</v>
     <v>0</v>
-    <v>93.92</v>
+    <v>94.16</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>94.375</v>
-    <v>93.745000000000005</v>
+    <v>94.265000000000001</v>
     <v>93.92</v>
+    <v>94.23</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>115889</v>
+    <v>35111</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>-2.5000000000000001E-2</v>
-    <v>-7.9699999999999997E-4</v>
+    <v>0.14099999999999999</v>
+    <v>4.4979999999999994E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.614000000000001</v>
+    <v>31.506</v>
     <v>ETF</v>
-    <v>45502.666666666664</v>
+    <v>45503.393067129633</v>
     <v>3</v>
-    <v>31.344000000000001</v>
+    <v>31.460999999999999</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>31.550999999999998</v>
-    <v>31.369</v>
+    <v>31.462</v>
     <v>31.344000000000001</v>
+    <v>31.484999999999999</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>19514</v>
+    <v>16269</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.2</v>
-    <v>1.6479999999999999E-3</v>
+    <v>0.42</v>
+    <v>3.4560000000000003E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.62</v>
+    <v>122.14</v>
     <v>ETF</v>
-    <v>45502.65693287037</v>
+    <v>45503.392893518518</v>
     <v>6</v>
-    <v>121.54</v>
+    <v>121.84</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>122.1</v>
-    <v>121.34</v>
+    <v>121.98</v>
     <v>121.54</v>
+    <v>121.96</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>92201</v>
+    <v>19599</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>93.92</v>
+        <v>94.23</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51005.44200000001</v>
+        <v>51131.184999999998</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36456.712000000007</v>
+        <v>36582.455000000002</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.344000000000001</v>
+        <v>31.484999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30041.939999999995</v>
+        <v>30049.262999999999</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1871.1900000000003</v>
+        <v>1878.5130000000001</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>121.54</v>
+        <v>121.96</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21821-B7CC-4DCB-BE06-67E68F168471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA4FDE-53CE-4B1E-8BC4-15E8CA4D489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3180" windowWidth="24480" windowHeight="13185" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,10 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36582.455000000002</v>
+            <v>36619.404000000002</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51131.184999999998</v>
+            <v>51168.134000000005</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1878.5130000000001</v>
+            <v>1879.5290000000002</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30049.262999999999</v>
+            <v>30050.278999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.31</v>
-    <v>3.3010000000000001E-3</v>
+    <v>0.44</v>
+    <v>4.6849999999999999E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>94.394999999999996</v>
     <v>ETF</v>
-    <v>45503.39303240741</v>
+    <v>45503.491944444446</v>
     <v>0</v>
-    <v>94.16</v>
+    <v>94.15</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.265000000000001</v>
     <v>93.92</v>
-    <v>94.23</v>
+    <v>94.36</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>35111</v>
+    <v>43347</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.14099999999999999</v>
-    <v>4.4979999999999994E-3</v>
+    <v>0.16800000000000001</v>
+    <v>5.3600000000000002E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.506</v>
+    <v>31.512</v>
     <v>ETF</v>
-    <v>45503.393067129633</v>
+    <v>45503.491944444446</v>
     <v>3</v>
-    <v>31.460999999999999</v>
+    <v>31.43</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.462</v>
     <v>31.344000000000001</v>
-    <v>31.484999999999999</v>
+    <v>31.512</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>16269</v>
+    <v>17324</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.42</v>
-    <v>3.4560000000000003E-3</v>
+    <v>0.57999999999999996</v>
+    <v>4.7720000000000002E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
     <v>122.14</v>
     <v>ETF</v>
-    <v>45503.392893518518</v>
+    <v>45503.491840277777</v>
     <v>6</v>
-    <v>121.84</v>
+    <v>121.82</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>121.98</v>
     <v>121.54</v>
-    <v>121.96</v>
+    <v>122.12</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>19599</v>
+    <v>31380</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,13 +1088,13 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -1113,10 +1113,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.23</v>
+        <v>94.36</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51131.184999999998</v>
+        <v>51168.134000000005</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36582.455000000002</v>
+        <v>36619.404000000002</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.484999999999999</v>
+        <v>31.512</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30049.262999999999</v>
+        <v>30050.278999999995</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1878.5130000000001</v>
+        <v>1879.5290000000002</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1211,9 +1211,9 @@
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="U3" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45503</v>
+      <c r="U3" s="7">
+        <f ca="1">NOW()</f>
+        <v>45503.585826273149</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>121.96</v>
+        <v>122.12</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>
@@ -1245,6 +1245,7 @@
       <c r="O5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
+      <c r="U5" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" s="5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACA4FDE-53CE-4B1E-8BC4-15E8CA4D489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A05898-BBA9-4C35-98D1-BAE38B4841F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -197,10 +197,10 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36619.404000000002</v>
+            <v>36691.686000000002</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51168.134000000005</v>
+            <v>51240.415999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1879.5290000000002</v>
+            <v>1884.1340000000002</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30050.278999999995</v>
+            <v>30054.883999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.44</v>
-    <v>4.6849999999999999E-3</v>
+    <v>0.65</v>
+    <v>6.9210000000000001E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>94.394999999999996</v>
+    <v>94.7</v>
     <v>ETF</v>
-    <v>45503.491944444446</v>
+    <v>45503.582280092596</v>
     <v>0</v>
     <v>94.15</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.265000000000001</v>
     <v>93.92</v>
-    <v>94.36</v>
+    <v>94.57</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>43347</v>
+    <v>57018</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.16800000000000001</v>
-    <v>5.3600000000000002E-3</v>
+    <v>0.128</v>
+    <v>4.084E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.512</v>
+    <v>31.532</v>
     <v>ETF</v>
-    <v>45503.491944444446</v>
+    <v>45503.582280092596</v>
     <v>3</v>
     <v>31.43</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.462</v>
     <v>31.344000000000001</v>
-    <v>31.512</v>
+    <v>31.472000000000001</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>17324</v>
+    <v>19002</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.57999999999999996</v>
-    <v>4.7720000000000002E-3</v>
+    <v>0.8</v>
+    <v>6.5820000000000002E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.14</v>
+    <v>122.5</v>
     <v>ETF</v>
-    <v>45503.491840277777</v>
+    <v>45503.582280092596</v>
     <v>6</v>
     <v>121.82</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>121.98</v>
     <v>121.54</v>
-    <v>122.12</v>
+    <v>122.34</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>31380</v>
+    <v>45269</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,10 +1113,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.36</v>
+        <v>94.57</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51168.134000000005</v>
+        <v>51240.415999999997</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36619.404000000002</v>
+        <v>36691.686000000002</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.512</v>
+        <v>31.472000000000001</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30050.278999999995</v>
+        <v>30054.883999999998</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1879.5290000000002</v>
+        <v>1884.1340000000002</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1211,9 +1211,9 @@
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45503.585826273149</v>
+        <v>45503.676063194442</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.12</v>
+        <v>122.34</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>
@@ -1245,7 +1245,7 @@
       <c r="O5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M12" s="5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A05898-BBA9-4C35-98D1-BAE38B4841F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9530488-6BE8-4FBE-A638-7F9B421458EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.65</v>
-    <v>6.9210000000000001E-3</v>
+    <v>0.53</v>
+    <v>5.6430000000000004E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>94.7</v>
     <v>ETF</v>
-    <v>45503.582280092596</v>
+    <v>45503.585127314815</v>
     <v>0</v>
     <v>94.15</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.265000000000001</v>
     <v>93.92</v>
-    <v>94.57</v>
+    <v>94.45</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>57018</v>
+    <v>57492</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.128</v>
-    <v>4.084E-3</v>
+    <v>9.6000000000000002E-2</v>
+    <v>3.0630000000000002E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
     <v>31.532</v>
     <v>ETF</v>
-    <v>45503.582280092596</v>
+    <v>45503.585092592592</v>
     <v>3</v>
     <v>31.43</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.462</v>
     <v>31.344000000000001</v>
-    <v>31.472000000000001</v>
+    <v>31.44</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>19002</v>
+    <v>19584</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.8</v>
-    <v>6.5820000000000002E-3</v>
+    <v>0.64</v>
+    <v>5.2659999999999998E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
     <v>122.5</v>
     <v>ETF</v>
-    <v>45503.582280092596</v>
+    <v>45503.585138888891</v>
     <v>6</v>
     <v>121.82</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>121.98</v>
     <v>121.54</v>
-    <v>122.34</v>
+    <v>122.18</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>45269</v>
+    <v>47618</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.57</v>
+        <v>94.45</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.472000000000001</v>
+        <v>31.44</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45503.676063194442</v>
+        <v>45503.678910185183</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.34</v>
+        <v>122.18</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9530488-6BE8-4FBE-A638-7F9B421458EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BCF9F-6CBF-436F-8DAE-7ACB62BDE6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36691.686000000002</v>
+            <v>36663.54</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51240.415999999997</v>
+            <v>51212.270000000004</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1884.1340000000002</v>
+            <v>1881.558</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30054.883999999998</v>
+            <v>30052.307999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.53</v>
-    <v>5.6430000000000004E-3</v>
+    <v>0.67500000000000004</v>
+    <v>7.1869999999999998E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>94.7</v>
     <v>ETF</v>
-    <v>45503.585127314815</v>
+    <v>45503.589189814818</v>
     <v>0</v>
     <v>94.15</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.265000000000001</v>
     <v>93.92</v>
-    <v>94.45</v>
+    <v>94.594999999999999</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>57492</v>
+    <v>63964</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>9.6000000000000002E-2</v>
-    <v>3.0630000000000002E-3</v>
+    <v>0.13</v>
+    <v>4.1479999999999998E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
     <v>31.532</v>
     <v>ETF</v>
-    <v>45503.585092592592</v>
+    <v>45503.589166666665</v>
     <v>3</v>
     <v>31.43</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.462</v>
     <v>31.344000000000001</v>
-    <v>31.44</v>
+    <v>31.474</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>19584</v>
+    <v>19587</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.64</v>
-    <v>5.2659999999999998E-3</v>
+    <v>0.84</v>
+    <v>6.9110000000000005E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
     <v>122.5</v>
     <v>ETF</v>
-    <v>45503.585138888891</v>
+    <v>45503.589189814818</v>
     <v>6</v>
     <v>121.82</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>121.98</v>
     <v>121.54</v>
-    <v>122.18</v>
+    <v>122.38</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>47618</v>
+    <v>48082</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.45</v>
+        <v>94.594999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51240.415999999997</v>
+        <v>51212.270000000004</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36691.686000000002</v>
+        <v>36663.54</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.44</v>
+        <v>31.474</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30054.883999999998</v>
+        <v>30052.307999999997</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1884.1340000000002</v>
+        <v>1881.558</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45503.678910185183</v>
+        <v>45503.682977662036</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.18</v>
+        <v>122.38</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23BCF9F-6CBF-436F-8DAE-7ACB62BDE6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB9E88-9C64-410B-95C0-62E5E72C56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -290,13 +290,13 @@
             <v>12842.73</v>
           </cell>
           <cell r="U5">
-            <v>36663.54</v>
+            <v>36663.319000000003</v>
           </cell>
           <cell r="V5">
             <v>1706</v>
           </cell>
           <cell r="X5">
-            <v>51212.270000000004</v>
+            <v>51212.048999999999</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1881.558</v>
+            <v>1882.0330000000004</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30052.307999999997</v>
+            <v>30052.782999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.67500000000000004</v>
-    <v>7.1869999999999998E-3</v>
+    <v>7.4999999999999997E-2</v>
+    <v>7.986E-4</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>94.7</v>
     <v>ETF</v>
-    <v>45503.589189814818</v>
+    <v>45503.666666666664</v>
     <v>0</v>
-    <v>94.15</v>
+    <v>93.89</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.265000000000001</v>
     <v>93.92</v>
-    <v>94.594999999999999</v>
+    <v>93.995000000000005</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>63964</v>
+    <v>113201</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.13</v>
-    <v>4.1479999999999998E-3</v>
+    <v>2E-3</v>
+    <v>6.3810000000000001E-5</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
     <v>31.532</v>
     <v>ETF</v>
-    <v>45503.589166666665</v>
+    <v>45503.666666666664</v>
     <v>3</v>
-    <v>31.43</v>
+    <v>31.34</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.462</v>
     <v>31.344000000000001</v>
-    <v>31.474</v>
+    <v>31.346</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>19587</v>
+    <v>22559</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.84</v>
-    <v>6.9110000000000005E-3</v>
+    <v>0.06</v>
+    <v>4.9370000000000002E-4</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
     <v>122.5</v>
     <v>ETF</v>
-    <v>45503.589189814818</v>
+    <v>45503.65693287037</v>
     <v>6</v>
-    <v>121.82</v>
+    <v>121.5</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>121.98</v>
     <v>121.54</v>
-    <v>122.38</v>
+    <v>121.6</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>48082</v>
+    <v>62731</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.594999999999999</v>
+        <v>93.995000000000005</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51212.270000000004</v>
+        <v>51212.048999999999</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36663.54</v>
+        <v>36663.319000000003</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.474</v>
+        <v>31.346</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30052.307999999997</v>
+        <v>30052.782999999996</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1881.558</v>
+        <v>1882.0330000000004</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45503.682977662036</v>
+        <v>45503.763641782411</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.38</v>
+        <v>121.6</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AB9E88-9C64-410B-95C0-62E5E72C56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8E39A-4EAE-4528-BB84-219372B95A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -232,9 +232,9 @@
       <sheetName val="Maand uitgaven"/>
       <sheetName val="Ledger"/>
       <sheetName val="LedgerPerJaar"/>
-      <sheetName val="Kroatie 2024"/>
       <sheetName val="beleggingen Jol"/>
       <sheetName val="schatting lening"/>
+      <sheetName val="Kroatie 2024"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -287,16 +287,16 @@
       <sheetData sheetId="4">
         <row r="5">
           <cell r="T5">
-            <v>12842.73</v>
+            <v>15427.5</v>
           </cell>
           <cell r="U5">
-            <v>36663.319000000003</v>
+            <v>36863.334999999999</v>
           </cell>
           <cell r="V5">
-            <v>1706</v>
+            <v>1696.55</v>
           </cell>
           <cell r="X5">
-            <v>51212.048999999999</v>
+            <v>53987.385000000002</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1882.0330000000004</v>
+            <v>1891.4930000000004</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30052.782999999996</v>
+            <v>30062.242999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>7.4999999999999997E-2</v>
-    <v>7.986E-4</v>
+    <v>0.92500000000000004</v>
+    <v>9.8409999999999991E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>94.7</v>
+    <v>95.034999999999997</v>
     <v>ETF</v>
-    <v>45503.666666666664</v>
+    <v>45504.497595890622</v>
     <v>0</v>
-    <v>93.89</v>
+    <v>94.76</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>94.265000000000001</v>
-    <v>93.92</v>
+    <v>94.85</v>
     <v>93.995000000000005</v>
+    <v>94.92</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>113201</v>
+    <v>39473</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>2E-3</v>
-    <v>6.3810000000000001E-5</v>
+    <v>0.52400000000000002</v>
+    <v>1.6716999999999999E-2</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.532</v>
+    <v>31.890999999999998</v>
     <v>ETF</v>
-    <v>45503.666666666664</v>
+    <v>45504.497650462959</v>
     <v>3</v>
-    <v>31.34</v>
+    <v>31.8</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>31.462</v>
-    <v>31.344000000000001</v>
+    <v>31.859000000000002</v>
     <v>31.346</v>
+    <v>31.87</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>22559</v>
+    <v>14528</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.06</v>
-    <v>4.9370000000000002E-4</v>
+    <v>1.36</v>
+    <v>1.1184000000000001E-2</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.5</v>
+    <v>123.06</v>
     <v>ETF</v>
-    <v>45503.65693287037</v>
+    <v>45504.49759259259</v>
     <v>6</v>
-    <v>121.5</v>
+    <v>122.7</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>121.98</v>
-    <v>121.54</v>
+    <v>122.82</v>
     <v>121.6</v>
+    <v>122.96</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>62731</v>
+    <v>23207</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,26 +1146,26 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>93.995000000000005</v>
+        <v>94.92</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>51212.048999999999</v>
+        <v>53987.385000000002</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36663.319000000003</v>
+        <v>36863.334999999999</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
-        <v>12842.73</v>
+        <v>15427.5</v>
       </c>
       <c r="J2">
         <f>[1]Ledger!$V$5</f>
-        <v>1706</v>
+        <v>1696.55</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.346</v>
+        <v>31.87</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30052.782999999996</v>
+        <v>30062.242999999995</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1882.0330000000004</v>
+        <v>1891.4930000000004</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45503.763641782411</v>
+        <v>45504.591405555555</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>121.6</v>
+        <v>122.96</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B8E39A-4EAE-4528-BB84-219372B95A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3C9085-4019-411C-91BB-563D8332ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -290,13 +290,13 @@
             <v>15427.5</v>
           </cell>
           <cell r="U5">
-            <v>36863.334999999999</v>
+            <v>37036.244000000006</v>
           </cell>
           <cell r="V5">
             <v>1696.55</v>
           </cell>
           <cell r="X5">
-            <v>53987.385000000002</v>
+            <v>54160.294000000009</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1891.4930000000004</v>
+            <v>1900.8409999999999</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30062.242999999995</v>
+            <v>30071.591</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.92500000000000004</v>
-    <v>9.8409999999999991E-3</v>
+    <v>1.35</v>
+    <v>1.4362E-2</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>95.034999999999997</v>
+    <v>95.39</v>
     <v>ETF</v>
-    <v>45504.497595890622</v>
+    <v>45504.642199074071</v>
     <v>0</v>
-    <v>94.76</v>
+    <v>94.75</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.85</v>
     <v>93.995000000000005</v>
-    <v>94.92</v>
+    <v>95.344999999999999</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>39473</v>
+    <v>131883</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.52400000000000002</v>
-    <v>1.6716999999999999E-2</v>
+    <v>0.627</v>
+    <v>2.0003000000000003E-2</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.890999999999998</v>
+    <v>31.978000000000002</v>
     <v>ETF</v>
-    <v>45504.497650462959</v>
+    <v>45504.642210648148</v>
     <v>3</v>
     <v>31.8</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.859000000000002</v>
     <v>31.346</v>
-    <v>31.87</v>
+    <v>31.972999999999999</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>14528</v>
+    <v>17397</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>1.36</v>
-    <v>1.1184000000000001E-2</v>
+    <v>1.88</v>
+    <v>1.5461000000000001E-2</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>123.06</v>
+    <v>123.54</v>
     <v>ETF</v>
-    <v>45504.49759259259</v>
+    <v>45504.642141203702</v>
     <v>6</v>
     <v>122.7</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>122.82</v>
     <v>121.6</v>
-    <v>122.96</v>
+    <v>123.48</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>23207</v>
+    <v>59177</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.92</v>
+        <v>95.344999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>53987.385000000002</v>
+        <v>54160.294000000009</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36863.334999999999</v>
+        <v>37036.244000000006</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.87</v>
+        <v>31.972999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30062.242999999995</v>
+        <v>30071.591</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1891.4930000000004</v>
+        <v>1900.8409999999999</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45504.591405555555</v>
+        <v>45504.735990046298</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.96</v>
+        <v>123.48</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3C9085-4019-411C-91BB-563D8332ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0928ADC-CA81-4021-B878-06D11AED5F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -290,13 +290,13 @@
             <v>15427.5</v>
           </cell>
           <cell r="U5">
-            <v>37036.244000000006</v>
+            <v>37044.531000000003</v>
           </cell>
           <cell r="V5">
             <v>1696.55</v>
           </cell>
           <cell r="X5">
-            <v>54160.294000000009</v>
+            <v>54168.581000000006</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1900.8409999999999</v>
+            <v>1902.117</v>
           </cell>
           <cell r="W6">
             <v>8824.8799999999992</v>
           </cell>
           <cell r="X6">
-            <v>30071.591</v>
+            <v>30072.866999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>1.35</v>
-    <v>1.4362E-2</v>
+    <v>1.395</v>
+    <v>1.4841E-2</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
     <v>95.39</v>
     <v>ETF</v>
-    <v>45504.642199074071</v>
+    <v>45504.666666666664</v>
     <v>0</v>
     <v>94.75</v>
     <v>76531170531.970001</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
     <v>94.85</v>
     <v>93.995000000000005</v>
-    <v>95.344999999999999</v>
+    <v>95.39</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>131883</v>
+    <v>153423</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.627</v>
-    <v>2.0003000000000003E-2</v>
+    <v>0.63100000000000001</v>
+    <v>2.0129999999999999E-2</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
     <v>31.978000000000002</v>
     <v>ETF</v>
-    <v>45504.642210648148</v>
+    <v>45504.666666666664</v>
     <v>3</v>
     <v>31.8</v>
     <v>20540937542.860001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
     <v>31.859000000000002</v>
     <v>31.346</v>
-    <v>31.972999999999999</v>
+    <v>31.977</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>17397</v>
+    <v>17997</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>1.88</v>
-    <v>1.5461000000000001E-2</v>
+    <v>1.9</v>
+    <v>1.5625E-2</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>123.54</v>
+    <v>123.56</v>
     <v>ETF</v>
-    <v>45504.642141203702</v>
+    <v>45504.65693287037</v>
     <v>6</v>
     <v>122.7</v>
     <v>12527969851.459999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
     <v>122.82</v>
     <v>121.6</v>
-    <v>123.48</v>
+    <v>123.5</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>59177</v>
+    <v>71655</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,18 +1146,18 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>95.344999999999999</v>
+        <v>95.39</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>54160.294000000009</v>
+        <v>54168.581000000006</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>37036.244000000006</v>
+        <v>37044.531000000003</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
@@ -1187,18 +1187,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.972999999999999</v>
+        <v>31.977</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30071.591</v>
+        <v>30072.866999999998</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1900.8409999999999</v>
+        <v>1902.117</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45504.735990046298</v>
+        <v>45504.824936921294</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>123.48</v>
+        <v>123.5</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr updateLinks="always" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0928ADC-CA81-4021-B878-06D11AED5F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43452495-9039-435F-8986-455FC9DFB78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -243,13 +243,13 @@
             <v>IWDA</v>
           </cell>
           <cell r="E6">
-            <v>79</v>
+            <v>90</v>
           </cell>
           <cell r="F6">
-            <v>89.933797468354442</v>
+            <v>89.932333333333347</v>
           </cell>
           <cell r="G6">
-            <v>7104.7700000000013</v>
+            <v>8093.9100000000017</v>
           </cell>
         </row>
         <row r="7">
@@ -287,30 +287,30 @@
       <sheetData sheetId="4">
         <row r="5">
           <cell r="T5">
-            <v>15427.5</v>
+            <v>14382.93</v>
           </cell>
           <cell r="U5">
-            <v>37044.531000000003</v>
+            <v>36511.790999999997</v>
           </cell>
           <cell r="V5">
-            <v>1696.55</v>
+            <v>1659.72</v>
           </cell>
           <cell r="X5">
-            <v>54168.581000000006</v>
+            <v>52554.440999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="T6">
-            <v>19345.87</v>
+            <v>19989.23</v>
           </cell>
           <cell r="U6">
-            <v>1902.117</v>
+            <v>1823.6410000000001</v>
           </cell>
           <cell r="W6">
-            <v>8824.8799999999992</v>
+            <v>8805.7900000000009</v>
           </cell>
           <cell r="X6">
-            <v>30072.866999999998</v>
+            <v>30618.661</v>
           </cell>
         </row>
       </sheetData>
@@ -445,25 +445,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>1.395</v>
-    <v>1.4841E-2</v>
+    <v>0.68</v>
+    <v>7.5009999999999999E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>95.39</v>
+    <v>91.444999999999993</v>
     <v>ETF</v>
-    <v>45504.666666666664</v>
+    <v>45513.388182870367</v>
     <v>0</v>
-    <v>94.75</v>
-    <v>76531170531.970001</v>
+    <v>90.82</v>
+    <v>78201680217.800003</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>94.85</v>
-    <v>93.995000000000005</v>
-    <v>95.39</v>
+    <v>90.834999999999994</v>
+    <v>90.66</v>
+    <v>91.34</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>153423</v>
+    <v>42711</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -486,25 +486,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.63100000000000001</v>
-    <v>2.0129999999999999E-2</v>
+    <v>0.26700000000000002</v>
+    <v>8.6890000000000005E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.978000000000002</v>
+    <v>31.02</v>
     <v>ETF</v>
-    <v>45504.666666666664</v>
+    <v>45513.388194444444</v>
     <v>3</v>
-    <v>31.8</v>
-    <v>20540937542.860001</v>
+    <v>30.815999999999999</v>
+    <v>20604117590.880001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>31.859000000000002</v>
-    <v>31.346</v>
-    <v>31.977</v>
+    <v>30.835999999999999</v>
+    <v>30.73</v>
+    <v>30.997</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>17997</v>
+    <v>3274</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -527,25 +527,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>1.9</v>
-    <v>1.5625E-2</v>
+    <v>0.84</v>
+    <v>7.1389999999999995E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>123.56</v>
+    <v>118.62</v>
     <v>ETF</v>
-    <v>45504.65693287037</v>
+    <v>45513.388194444444</v>
     <v>6</v>
-    <v>122.7</v>
-    <v>12527969851.459999</v>
+    <v>117.76</v>
+    <v>13266443856.959999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>122.82</v>
-    <v>121.6</v>
-    <v>123.5</v>
+    <v>117.82</v>
+    <v>117.66</v>
+    <v>118.5</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>71655</v>
+    <v>34202</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,38 +1134,38 @@
       </c>
       <c r="B2" s="2">
         <f>[1]Assets!$E$6</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>
-        <v>7104.7700000000013</v>
+        <v>8093.9100000000017</v>
       </c>
       <c r="D2" s="3">
         <f>[1]Assets!$F$6</f>
-        <v>89.933797468354442</v>
+        <v>89.932333333333347</v>
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>95.39</v>
+        <v>91.34</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>54168.581000000006</v>
+        <v>52554.440999999999</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>37044.531000000003</v>
+        <v>36511.790999999997</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
-        <v>15427.5</v>
+        <v>14382.93</v>
       </c>
       <c r="J2">
         <f>[1]Ledger!$V$5</f>
-        <v>1696.55</v>
+        <v>1659.72</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1187,33 +1187,33 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.977</v>
+        <v>30.997</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30072.866999999998</v>
+        <v>30618.661</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1902.117</v>
+        <v>1823.6410000000001</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
-        <v>19345.87</v>
+        <v>19989.23</v>
       </c>
       <c r="J3">
         <f>[1]Ledger!$W$6</f>
-        <v>8824.8799999999992</v>
+        <v>8805.7900000000009</v>
       </c>
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45504.824936921294</v>
+        <v>45513.482001851851</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>123.5</v>
+        <v>118.5</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43452495-9039-435F-8986-455FC9DFB78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CDA64-BF73-4D1D-A7CB-471AA56A62EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -287,16 +287,16 @@
       <sheetData sheetId="4">
         <row r="5">
           <cell r="T5">
-            <v>14382.93</v>
+            <v>13174</v>
           </cell>
           <cell r="U5">
-            <v>36511.790999999997</v>
+            <v>37668.566999999995</v>
           </cell>
           <cell r="V5">
-            <v>1659.72</v>
+            <v>1787.05</v>
           </cell>
           <cell r="X5">
-            <v>52554.440999999999</v>
+            <v>52629.616999999998</v>
           </cell>
         </row>
         <row r="6">
@@ -304,13 +304,13 @@
             <v>19989.23</v>
           </cell>
           <cell r="U6">
-            <v>1823.6410000000001</v>
+            <v>1881.8710000000001</v>
           </cell>
           <cell r="W6">
             <v>8805.7900000000009</v>
           </cell>
           <cell r="X6">
-            <v>30618.661</v>
+            <v>30676.891</v>
           </cell>
         </row>
       </sheetData>
@@ -436,6 +436,7 @@
     <v>aloe4c</v>
     <v>268435456</v>
     <v>1</v>
+    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
@@ -445,25 +446,25 @@
     <v>4</v>
     <v>96.7</v>
     <v>73.69</v>
-    <v>0.68</v>
-    <v>7.5009999999999999E-3</v>
+    <v>0.16</v>
+    <v>1.696E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>91.444999999999993</v>
+    <v>94.59</v>
     <v>ETF</v>
-    <v>45513.388182870367</v>
+    <v>45527.561701388891</v>
     <v>0</v>
-    <v>90.82</v>
+    <v>94.165000000000006</v>
     <v>78201680217.800003</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>90.834999999999994</v>
-    <v>90.66</v>
-    <v>91.34</v>
+    <v>94.18</v>
+    <v>94.344999999999999</v>
+    <v>94.504999999999995</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>42711</v>
+    <v>54066</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -477,6 +478,7 @@
     <v>alo6cw</v>
     <v>268435456</v>
     <v>1</v>
+    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
@@ -486,25 +488,25 @@
     <v>4</v>
     <v>32.82</v>
     <v>26.53</v>
-    <v>0.26700000000000002</v>
-    <v>8.6890000000000005E-3</v>
+    <v>0.23899999999999999</v>
+    <v>7.6410000000000002E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.02</v>
+    <v>31.518999999999998</v>
     <v>ETF</v>
-    <v>45513.388194444444</v>
+    <v>45527.561701388891</v>
     <v>3</v>
-    <v>30.815999999999999</v>
+    <v>31.4</v>
     <v>20604117590.880001</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>30.835999999999999</v>
-    <v>30.73</v>
-    <v>30.997</v>
+    <v>31.41</v>
+    <v>31.28</v>
+    <v>31.518999999999998</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>3274</v>
+    <v>9064</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -518,6 +520,7 @@
     <v>bqzorw</v>
     <v>268435456</v>
     <v>1</v>
+    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
@@ -527,25 +530,25 @@
     <v>4</v>
     <v>125.14</v>
     <v>96.52</v>
-    <v>0.84</v>
-    <v>7.1389999999999995E-3</v>
+    <v>0.24</v>
+    <v>1.967E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>118.62</v>
+    <v>122.36</v>
     <v>ETF</v>
-    <v>45513.388194444444</v>
+    <v>45527.561701388891</v>
     <v>6</v>
-    <v>117.76</v>
+    <v>121.8</v>
     <v>13266443856.959999</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>117.82</v>
-    <v>117.66</v>
-    <v>118.5</v>
+    <v>121.86</v>
+    <v>122</v>
+    <v>122.24</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>34202</v>
+    <v>29942</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -564,6 +567,7 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
+    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="_Display" t="spb"/>
     <k n="_DisplayString" t="s"/>
@@ -602,7 +606,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="32">
+    <a count="33">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -635,6 +639,7 @@
       <v t="s">_DisplayString</v>
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
+      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -1088,7 +1093,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,26 +1151,26 @@
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>91.34</v>
+        <v>94.504999999999995</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>52554.440999999999</v>
+        <v>52629.616999999998</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>36511.790999999997</v>
+        <v>37668.566999999995</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
-        <v>14382.93</v>
+        <v>13174</v>
       </c>
       <c r="J2">
         <f>[1]Ledger!$V$5</f>
-        <v>1659.72</v>
+        <v>1787.05</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1187,18 +1192,18 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>30.997</v>
+        <v>31.518999999999998</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30618.661</v>
+        <v>30676.891</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1823.6410000000001</v>
+        <v>1881.8710000000001</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
@@ -1213,7 +1218,7 @@
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45513.482001851851</v>
+        <v>45527.655672685185</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1235,7 +1240,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>118.5</v>
+        <v>122.24</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr updateLinks="always" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartm\Documents\GitHub\Stock-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39CDA64-BF73-4D1D-A7CB-471AA56A62EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77944EC6-2FAD-431E-B187-42FE2E9D075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29A6A1C3-F615-434C-B187-5E0D3705EC97}"/>
   </bookViews>
@@ -243,13 +243,13 @@
             <v>IWDA</v>
           </cell>
           <cell r="E6">
-            <v>90</v>
+            <v>100</v>
           </cell>
           <cell r="F6">
-            <v>89.932333333333347</v>
+            <v>90.618600000000029</v>
           </cell>
           <cell r="G6">
-            <v>8093.9100000000017</v>
+            <v>9061.8600000000024</v>
           </cell>
         </row>
         <row r="7">
@@ -287,30 +287,30 @@
       <sheetData sheetId="4">
         <row r="5">
           <cell r="T5">
-            <v>13174</v>
+            <v>15580.76</v>
           </cell>
           <cell r="U5">
-            <v>37668.566999999995</v>
+            <v>39592.796999999999</v>
           </cell>
           <cell r="V5">
-            <v>1787.05</v>
+            <v>1908.58</v>
           </cell>
           <cell r="X5">
-            <v>52629.616999999998</v>
+            <v>57082.137000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="T6">
-            <v>19989.23</v>
+            <v>19345.87</v>
           </cell>
           <cell r="U6">
-            <v>1881.8710000000001</v>
+            <v>1928.0650000000001</v>
           </cell>
           <cell r="W6">
-            <v>8805.7900000000009</v>
+            <v>8786.7000000000007</v>
           </cell>
           <cell r="X6">
-            <v>30676.891</v>
+            <v>30060.634999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -436,7 +436,6 @@
     <v>aloe4c</v>
     <v>268435456</v>
     <v>1</v>
-    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
@@ -444,27 +443,27 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>96.7</v>
+    <v>97.12</v>
     <v>73.69</v>
-    <v>0.16</v>
-    <v>1.696E-3</v>
+    <v>-0.245</v>
+    <v>-2.5349999999999999E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>2E-3</v>
-    <v>94.59</v>
+    <v>96.57</v>
     <v>ETF</v>
-    <v>45527.561701388891</v>
+    <v>45565.616157407407</v>
     <v>0</v>
-    <v>94.165000000000006</v>
-    <v>78201680217.800003</v>
+    <v>95.834999999999994</v>
+    <v>82085176917.949997</v>
     <v>iShs CoreMSCI Wld ETF USD A</v>
-    <v>94.18</v>
-    <v>94.344999999999999</v>
-    <v>94.504999999999995</v>
+    <v>96.405000000000001</v>
+    <v>96.665000000000006</v>
+    <v>96.42</v>
     <v>IWDA</v>
     <v>iShs CoreMSCI Wld ETF USD A (XAMS:IWDA)</v>
-    <v>54066</v>
+    <v>166891</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -478,7 +477,6 @@
     <v>alo6cw</v>
     <v>268435456</v>
     <v>1</v>
-    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
@@ -486,27 +484,27 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>32.82</v>
+    <v>33.61</v>
     <v>26.53</v>
-    <v>0.23899999999999999</v>
-    <v>7.6410000000000002E-3</v>
+    <v>-0.182</v>
+    <v>-5.4469999999999996E-3</v>
     <v>EUR</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>1.8E-3</v>
-    <v>31.518999999999998</v>
+    <v>33.521000000000001</v>
     <v>ETF</v>
-    <v>45527.561701388891</v>
+    <v>45565.615960648145</v>
     <v>3</v>
-    <v>31.4</v>
-    <v>20604117590.880001</v>
+    <v>33.101999999999997</v>
+    <v>21199963345.84</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA</v>
-    <v>31.41</v>
-    <v>31.28</v>
-    <v>31.518999999999998</v>
+    <v>33.460999999999999</v>
+    <v>33.411000000000001</v>
+    <v>33.228999999999999</v>
     <v>EMIM</v>
     <v>iShs CrMSCI EMIMIUCITS ETFUSDA (XAMS:EMIM)</v>
-    <v>9064</v>
+    <v>50432</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -520,7 +518,6 @@
     <v>bqzorw</v>
     <v>268435456</v>
     <v>1</v>
-    <v>0</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
@@ -528,27 +525,27 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>125.14</v>
+    <v>126.18</v>
     <v>96.52</v>
-    <v>0.24</v>
-    <v>1.967E-3</v>
+    <v>-0.26</v>
+    <v>-2.0709999999999999E-3</v>
     <v>EUR</v>
     <v>Xetra</v>
     <v>XETR</v>
     <v>2.2000000000000001E-3</v>
-    <v>122.36</v>
+    <v>125.58</v>
     <v>ETF</v>
-    <v>45527.561701388891</v>
+    <v>45565.61613425926</v>
     <v>6</v>
-    <v>121.8</v>
-    <v>13266443856.959999</v>
+    <v>124.58</v>
+    <v>14193287212</v>
     <v>FTSE AllWld UCITS ETF USD A</v>
-    <v>121.86</v>
-    <v>122</v>
-    <v>122.24</v>
+    <v>125.34</v>
+    <v>125.56</v>
+    <v>125.3</v>
     <v>VWCE</v>
     <v>FTSE AllWld UCITS ETF USD A (XETR:VWCE)</v>
-    <v>29942</v>
+    <v>92251</v>
   </rv>
   <rv s="2">
     <v>7</v>
@@ -567,7 +564,6 @@
     <k n="%EntityId" t="s"/>
     <k n="%EntityServiceId"/>
     <k n="%IsRefreshable" t="b"/>
-    <k n="%OutdatedReason" t="i"/>
     <k n="%ProviderInfo" t="s"/>
     <k n="_Display" t="spb"/>
     <k n="_DisplayString" t="s"/>
@@ -606,7 +602,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="33">
+    <a count="32">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -639,7 +635,6 @@
       <v t="s">_DisplayString</v>
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
-      <v t="s">%OutdatedReason</v>
     </a>
   </spbArrays>
   <spbData count="5">
@@ -1139,38 +1134,38 @@
       </c>
       <c r="B2" s="2">
         <f>[1]Assets!$E$6</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
         <f>[1]Assets!$G$6</f>
-        <v>8093.9100000000017</v>
+        <v>9061.8600000000024</v>
       </c>
       <c r="D2" s="3">
         <f>[1]Assets!$F$6</f>
-        <v>89.932333333333347</v>
+        <v>90.618600000000029</v>
       </c>
       <c r="E2" s="4" cm="1">
         <f t="array" ref="E2">_FV(O3,"Price")</f>
-        <v>94.504999999999995</v>
+        <v>96.42</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
         <f>[1]Ledger!$X$5</f>
-        <v>52629.616999999998</v>
+        <v>57082.137000000002</v>
       </c>
       <c r="H2">
         <f>[1]Ledger!$U$5</f>
-        <v>37668.566999999995</v>
+        <v>39592.796999999999</v>
       </c>
       <c r="I2">
         <f>[1]Ledger!$T$5</f>
-        <v>13174</v>
+        <v>15580.76</v>
       </c>
       <c r="J2">
         <f>[1]Ledger!$V$5</f>
-        <v>1787.05</v>
+        <v>1908.58</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1192,33 +1187,33 @@
       </c>
       <c r="E3" s="5" cm="1">
         <f t="array" ref="E3">_FV(O4,"Price")</f>
-        <v>31.518999999999998</v>
+        <v>33.228999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3">
         <f>[1]Ledger!$X$6</f>
-        <v>30676.891</v>
+        <v>30060.634999999998</v>
       </c>
       <c r="H3">
         <f>[1]Ledger!$U$6</f>
-        <v>1881.8710000000001</v>
+        <v>1928.0650000000001</v>
       </c>
       <c r="I3">
         <f>[1]Ledger!$T$6</f>
-        <v>19989.23</v>
+        <v>19345.87</v>
       </c>
       <c r="J3">
         <f>[1]Ledger!$W$6</f>
-        <v>8805.7900000000009</v>
+        <v>8786.7000000000007</v>
       </c>
       <c r="O3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="U3" s="6">
         <f ca="1">NOW()</f>
-        <v>45527.655672685185</v>
+        <v>45565.709926736112</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1240,7 +1235,7 @@
       </c>
       <c r="E4" s="4" cm="1">
         <f t="array" ref="E4">_FV(O5,"Price")</f>
-        <v>122.24</v>
+        <v>125.3</v>
       </c>
       <c r="O4" t="e" vm="2">
         <v>#VALUE!</v>
